--- a/Data Gathered and Results/Test #2 Mutation Variations and Parameters (Rate 0.1,0.2,0.4)/Results.xlsx
+++ b/Data Gathered and Results/Test #2 Mutation Variations and Parameters (Rate 0.1,0.2,0.4)/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data\Test #2 Mutation Variations and Parameters (Rate 0.1,0.2,0.4)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\git\SET10107Coursework\Data Gathered and Results\Test #2 Mutation Variations and Parameters (Rate 0.1,0.2,0.4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="0" windowWidth="16065" windowHeight="11610"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="16065" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Initial benchmark" sheetId="1" r:id="rId1"/>
@@ -811,22 +811,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.1782903592337129E-2</c:v>
+                  <c:v>5.8264556060210373E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0507966721488296E-2</c:v>
+                  <c:v>1.4625454289561374E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.382242575E-2</c:v>
+                  <c:v>5.5541044889306848E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1588730250000001E-2</c:v>
+                  <c:v>1.6915469775438775E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2359082076316024E-2</c:v>
+                  <c:v>5.5268232986486379E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2876297880977497E-2</c:v>
+                  <c:v>3.4898860737361245E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,22 +932,22 @@
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.1398698550603723E-4</c:v>
+                  <c:v>2.916508662860125E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8682210962268848E-4</c:v>
+                  <c:v>1.8883133886588125E-5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>2.2175E-4</c:v>
+                  <c:v>3.1432020799665152E-4</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>3.1875000000000002E-4</c:v>
+                  <c:v>2.3848658253277152E-5</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.2778713370046977E-4</c:v>
+                  <c:v>3.4759188705713197E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="General">
-                  <c:v>3.9246714573614578E-4</c:v>
+                  <c:v>7.4359729828802018E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,22 +1053,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.18507621128887602</c:v>
+                  <c:v>0.17339608138053825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18577851047380925</c:v>
+                  <c:v>6.6236666583288917E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18546313550000001</c:v>
+                  <c:v>0.16534798470990275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20071965175000001</c:v>
+                  <c:v>6.6489880032925996E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19457061437445775</c:v>
+                  <c:v>0.15962066798850275</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20684361555047825</c:v>
+                  <c:v>9.4466677311355274E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>5.98841601523614E-2</v>
+        <v>1.44071731681819E-2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="G1" t="s">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="I1">
-        <v>6.4189132999999995E-2</v>
+        <v>1.667436945343E-2</v>
       </c>
       <c r="J1" s="1"/>
       <c r="M1" t="s">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="O1">
-        <v>5.9516939202328999E-2</v>
+        <v>3.8274913343198498E-2</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -2368,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.0512995689791097E-2</v>
+        <v>5.8081534935822597E-2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="G2" t="s">
@@ -2378,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>5.3847968000000003E-2</v>
+        <v>5.0871301541559097E-2</v>
       </c>
       <c r="J2" s="1"/>
       <c r="M2" t="s">
@@ -2388,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>5.4503498827852798E-2</v>
+        <v>5.2135693498721103E-2</v>
       </c>
       <c r="P2" s="1"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5.9567991910196801E-2</v>
+        <v>1.36698607327748E-2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="G3" t="s">
@@ -2410,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>5.9761132000000002E-2</v>
+        <v>1.5750366028770699E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="M3" t="s">
@@ -2420,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="O3">
-        <v>6.9348178974617203E-2</v>
+        <v>2.9868221350586501E-2</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4.9839567795259401E-2</v>
+        <v>6.7025862097038494E-2</v>
       </c>
       <c r="D4" s="1"/>
       <c r="G4" t="s">
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <v>5.7858828000000001E-2</v>
+        <v>6.4044596917311805E-2</v>
       </c>
       <c r="J4" s="1"/>
       <c r="M4" t="s">
@@ -2452,7 +2452,7 @@
         <v>4</v>
       </c>
       <c r="O4">
-        <v>5.2909757087742801E-2</v>
+        <v>5.6107541465315797E-2</v>
       </c>
       <c r="P4" s="1"/>
     </row>
@@ -2464,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5.9471300583132401E-2</v>
+        <v>1.4037561644217E-2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="2"/>
@@ -2475,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5.9023764999999999E-2</v>
+        <v>1.74895464728008E-2</v>
       </c>
       <c r="J5" s="1"/>
       <c r="M5" t="s">
@@ -2485,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>6.4681766206048194E-2</v>
+        <v>3.4459107833225901E-2</v>
       </c>
       <c r="P5" s="1"/>
     </row>
@@ -2497,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5.2774438367788098E-2</v>
+        <v>5.5360809274450799E-2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" t="s">
@@ -2507,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>5.0454234000000001E-2</v>
+        <v>5.3378538053897598E-2</v>
       </c>
       <c r="J6" s="1"/>
       <c r="M6" t="s">
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <v>5.2892153515200199E-2</v>
+        <v>5.9240289793267502E-2</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -2529,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>6.3108414240262603E-2</v>
+        <v>1.6387221613071799E-2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="G7" t="s">
@@ -2539,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <v>6.3380890999999995E-2</v>
+        <v>1.7747597146753599E-2</v>
       </c>
       <c r="J7" s="1"/>
       <c r="M7" t="s">
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="O7">
-        <v>5.7958307140915599E-2</v>
+        <v>3.6993200422434099E-2</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -2561,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>5.4004612516509898E-2</v>
+        <v>5.2590017933529597E-2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="G8" t="s">
@@ -2571,7 +2571,7 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <v>5.3128673000000001E-2</v>
+        <v>5.38697430444589E-2</v>
       </c>
       <c r="J8" s="1"/>
       <c r="M8" t="s">
@@ -2581,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <v>4.9130918874468299E-2</v>
+        <v>5.3589407188641101E-2</v>
       </c>
       <c r="P8" s="1"/>
     </row>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2.45626621403526E-4</v>
+        <v>1.75640575380182E-5</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2.9799999999999998E-4</v>
+        <v>2.7098397702646501E-5</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>3.7180206327326002E-4</v>
+        <v>8.6077551866506401E-5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>1.8618574791514099E-4</v>
+        <v>3.0347913443547198E-4</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>2.4600000000000002E-4</v>
+        <v>3.0623119066970801E-4</v>
       </c>
       <c r="M10" t="s">
         <v>9</v>
@@ -2640,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="1">
-        <v>2.4477448812418898E-4</v>
+        <v>3.2594830204907499E-4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>2.9314891068363101E-4</v>
+        <v>1.65092391016216E-5</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>3.2600000000000001E-4</v>
+        <v>2.78906186967925E-5</v>
       </c>
       <c r="M11" t="s">
         <v>9</v>
@@ -2669,7 +2669,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="1">
-        <v>3.99644366342601E-4</v>
+        <v>6.1061836675818299E-5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0900514740183299E-4</v>
+        <v>3.1661087682780502E-4</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -2689,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>1.9900000000000001E-4</v>
+        <v>3.4495174800879702E-4</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="O12" s="1">
-        <v>2.3859523520199999E-4</v>
+        <v>3.2722059318160299E-4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>2.7440285667159101E-4</v>
+        <v>2.3195015904237201E-5</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>2.8800000000000001E-4</v>
+        <v>1.62213267046807E-5</v>
       </c>
       <c r="M13" t="s">
         <v>9</v>
@@ -2727,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="1">
-        <v>3.6272902063155203E-4</v>
+        <v>8.0716641085599596E-5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>2.10067297861504E-4</v>
+        <v>3.0451541500773997E-4</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -2747,7 +2747,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>2.42E-4</v>
+        <v>2.7508904592255499E-4</v>
       </c>
       <c r="M14" t="s">
         <v>9</v>
@@ -2756,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1">
-        <v>1.9214718524022701E-4</v>
+        <v>3.4843801733772502E-4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>3.3411004973200599E-4</v>
+        <v>1.8264223002475501E-5</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -2776,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="I15" s="1">
-        <v>3.6299999999999999E-4</v>
+        <v>2.4184289908988899E-5</v>
       </c>
       <c r="M15" t="s">
         <v>9</v>
@@ -2785,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="O15" s="1">
-        <v>4.3569313269717E-4</v>
+        <v>6.9582889687283805E-5</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>2.5068974884567098E-4</v>
+        <v>2.4199803887303299E-4</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -2805,7 +2805,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>3.31008847385546E-4</v>
       </c>
       <c r="M16" t="s">
         <v>9</v>
@@ -2814,7 +2814,7 @@
         <v>8</v>
       </c>
       <c r="O16" s="1">
-        <v>2.3563162623546299E-4</v>
+        <v>3.88760635660125E-4</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.18618190628834499</v>
+        <v>6.6345002314100898E-2</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.192457723</v>
+        <v>6.9429590669948305E-2</v>
       </c>
       <c r="M17" t="s">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>0.21483180632145099</v>
+        <v>9.6972153654168794E-2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0.19676542301981401</v>
+        <v>0.18101777858986801</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -2863,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0.18607531199999999</v>
+        <v>0.15213359464880499</v>
       </c>
       <c r="M18" t="s">
         <v>10</v>
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="O18">
-        <v>0.19358383877307</v>
+        <v>0.16257629179921401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.189637181348947</v>
+        <v>5.4467183286720199E-2</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.19262232100000001</v>
+        <v>5.9638537792456599E-2</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
@@ -2901,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="O19">
-        <v>0.207340655188435</v>
+        <v>8.8676763534473305E-2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.17348132971333199</v>
+        <v>0.16894891598120401</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <v>0.18352695099999999</v>
+        <v>0.16116642774398901</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="O20">
-        <v>0.20091896854465699</v>
+        <v>0.16077887482910999</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2941,7 +2941,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>0.17925302222228801</v>
+        <v>6.5433062840707198E-2</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -2950,7 +2950,7 @@
         <v>5</v>
       </c>
       <c r="I21">
-        <v>0.212425796</v>
+        <v>6.2035536428848903E-2</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
@@ -2959,7 +2959,7 @@
         <v>5</v>
       </c>
       <c r="O21">
-        <v>0.200690666233557</v>
+        <v>9.5357243287581897E-2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>0.187837359308545</v>
+        <v>0.17062047037976799</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -2979,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="I22">
-        <v>0.185006591</v>
+        <v>0.17875959968492999</v>
       </c>
       <c r="M22" t="s">
         <v>10</v>
@@ -2988,7 +2988,7 @@
         <v>6</v>
       </c>
       <c r="O22">
-        <v>0.19510587020422801</v>
+        <v>0.16160515009854501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2999,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.188041932035657</v>
+        <v>7.8701417891627407E-2</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -3008,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="I23">
-        <v>0.20537276700000001</v>
+        <v>7.48558552404502E-2</v>
       </c>
       <c r="M23" t="s">
         <v>10</v>
@@ -3017,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="O23">
-        <v>0.20451133445847</v>
+        <v>9.68605487691971E-2</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.18222073311381301</v>
+        <v>0.17299716057131301</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -3037,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>0.18724368799999999</v>
+        <v>0.16933231676188701</v>
       </c>
       <c r="M24" t="s">
         <v>10</v>
@@ -3046,7 +3046,7 @@
         <v>8</v>
       </c>
       <c r="O24">
-        <v>0.188673779975876</v>
+        <v>0.153522355227142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -3153,15 +3153,15 @@
       </c>
       <c r="C33">
         <f>AVERAGE(C2,C4,C6,C8)</f>
-        <v>5.1782903592337129E-2</v>
+        <v>5.8264556060210373E-2</v>
       </c>
       <c r="D33" s="3">
         <f>AVERAGE(C10,C12,C14,C16)</f>
-        <v>2.1398698550603723E-4</v>
+        <v>2.916508662860125E-4</v>
       </c>
       <c r="E33">
         <f>AVERAGE(C18,C20,C22,C24)</f>
-        <v>0.18507621128887602</v>
+        <v>0.17339608138053825</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -3171,15 +3171,15 @@
       </c>
       <c r="I33">
         <f>AVERAGE(I2,I4,I6,I8)</f>
-        <v>5.382242575E-2</v>
+        <v>5.5541044889306848E-2</v>
       </c>
       <c r="J33" s="1">
         <f>AVERAGE(I10,I12,I14,I16)</f>
-        <v>2.2175E-4</v>
+        <v>3.1432020799665152E-4</v>
       </c>
       <c r="K33">
         <f>AVERAGE(I18,I20,I22,I24)</f>
-        <v>0.18546313550000001</v>
+        <v>0.16534798470990275</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
@@ -3189,15 +3189,15 @@
       </c>
       <c r="O33">
         <f>AVERAGE(O2,O4,O6,O8)</f>
-        <v>5.2359082076316024E-2</v>
+        <v>5.5268232986486379E-2</v>
       </c>
       <c r="P33" s="1">
         <f>AVERAGE(O10,O12,O14,O16)</f>
-        <v>2.2778713370046977E-4</v>
+        <v>3.4759188705713197E-4</v>
       </c>
       <c r="Q33">
         <f>AVERAGE(O18,O20,O22,O24)</f>
-        <v>0.19457061437445775</v>
+        <v>0.15962066798850275</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -3206,45 +3206,45 @@
       </c>
       <c r="C34">
         <f>AVERAGE(C1,C3,C5,C7)</f>
-        <v>6.0507966721488296E-2</v>
+        <v>1.4625454289561374E-2</v>
       </c>
       <c r="D34" s="3">
         <f>AVERAGE(C9,C11,C13,C15)</f>
-        <v>2.8682210962268848E-4</v>
+        <v>1.8883133886588125E-5</v>
       </c>
       <c r="E34">
         <f>AVERAGE(C17,C19,C21,C23)</f>
-        <v>0.18577851047380925</v>
+        <v>6.6236666583288917E-2</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
       <c r="I34">
         <f>AVERAGE(I1,I3,I5,I7)</f>
-        <v>6.1588730250000001E-2</v>
+        <v>1.6915469775438775E-2</v>
       </c>
       <c r="J34" s="1">
         <f>AVERAGE(I9,I11,I13,I15)</f>
-        <v>3.1875000000000002E-4</v>
+        <v>2.3848658253277152E-5</v>
       </c>
       <c r="K34">
         <f>AVERAGE(I17,I19,I21,I23)</f>
-        <v>0.20071965175000001</v>
+        <v>6.6489880032925996E-2</v>
       </c>
       <c r="N34" t="s">
         <v>12</v>
       </c>
       <c r="O34">
         <f>AVERAGE(O1,O3,O5,O7)</f>
-        <v>6.2876297880977497E-2</v>
+        <v>3.4898860737361245E-2</v>
       </c>
       <c r="P34" s="1">
         <f>AVERAGE(O9,O11,O13,O15)</f>
-        <v>3.9246714573614578E-4</v>
+        <v>7.4359729828802018E-5</v>
       </c>
       <c r="Q34">
         <f>AVERAGE(O17,O19,O21,O23)</f>
-        <v>0.20684361555047825</v>
+        <v>9.4466677311355274E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -3258,15 +3258,15 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>5.382242575E-2</v>
+        <v>5.5541044889306848E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>2.2175E-4</v>
+        <v>3.1432020799665152E-4</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.18546313550000001</v>
+        <v>0.16534798470990275</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -3276,15 +3276,15 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>6.1588730250000001E-2</v>
+        <v>1.6915469775438775E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>3.1875000000000002E-4</v>
+        <v>2.3848658253277152E-5</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.20071965175000001</v>
+        <v>6.6489880032925996E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3298,15 +3298,15 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>5.2359082076316024E-2</v>
+        <v>5.5268232986486379E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>2.2778713370046977E-4</v>
+        <v>3.4759188705713197E-4</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0.19457061437445775</v>
+        <v>0.15962066798850275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3316,15 +3316,15 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6.2876297880977497E-2</v>
+        <v>3.4898860737361245E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3.9246714573614578E-4</v>
+        <v>7.4359729828802018E-5</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0.20684361555047825</v>
+        <v>9.4466677311355274E-2</v>
       </c>
     </row>
   </sheetData>
